--- a/model/Biogas_KVIK24.xlsx
+++ b/model/Biogas_KVIK24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au3642_uni_au_dk/Documents/Models and tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F242FBB-64DF-463F-B4D6-84A715875424}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26476744-6EB1-469F-9D7C-FC19E6DE0858}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{86A3C7CE-5D82-4A55-8627-6C61FEAEB006}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>VS (kg/t_feed)</t>
   </si>
   <si>
-    <t>BMP (L CH4/kg VS)</t>
+    <t>B_0 (L CH4/kg VS)</t>
   </si>
   <si>
     <t>Temp. (°C)</t>
@@ -92,7 +92,7 @@
     <t>Reactor Ret.time (days)</t>
   </si>
   <si>
-    <t>Yield of BMP</t>
+    <t>Yield of B_0</t>
   </si>
   <si>
     <t>CH4 prod. (L CH4/kg VS)</t>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB087C6-B92F-45E9-88F4-3746D5E0631B}">
   <dimension ref="B1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,53 +943,53 @@
         <v>60</v>
       </c>
       <c r="L4" s="13">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" ref="M4:M6" si="2">+L4*H4</f>
-        <v>280</v>
+        <v>297.5</v>
       </c>
       <c r="N4" s="22">
         <f>+M4*G4/1000</f>
-        <v>4.8384000000000009</v>
+        <v>5.1408000000000005</v>
       </c>
       <c r="O4" s="18">
         <f t="shared" ref="O4:O6" si="3">+ROUND(N4/22.4*16, 2)</f>
-        <v>3.46</v>
+        <v>3.67</v>
       </c>
       <c r="P4" s="20">
         <f>+O4/G4</f>
-        <v>0.20023148148148145</v>
+        <v>0.21238425925925924</v>
       </c>
       <c r="Q4" s="13">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="18">
         <f t="shared" ref="R4:R5" si="4">1-Q4</f>
-        <v>0.44999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="18">
         <v>0.42</v>
       </c>
       <c r="T4" s="19">
         <f>+O4/16*12</f>
-        <v>2.5949999999999998</v>
+        <v>2.7524999999999999</v>
       </c>
       <c r="U4" s="19">
         <f t="shared" ref="U4:U6" si="5">+T4/Q4*R4</f>
-        <v>2.1231818181818176</v>
+        <v>1.8350000000000002</v>
       </c>
       <c r="V4" s="19">
         <f>+SUM(T4:U4)/S4</f>
-        <v>11.233766233766231</v>
+        <v>10.922619047619049</v>
       </c>
       <c r="W4" s="19">
         <f>+V4/(G4)</f>
-        <v>0.65010221260221235</v>
+        <v>0.63209600970017643</v>
       </c>
       <c r="X4" s="19">
         <f>+W4*E4</f>
-        <v>0.52008177008176992</v>
+        <v>0.50567680776014112</v>
       </c>
     </row>
     <row r="5" spans="2:24">
@@ -1178,7 +1178,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="22">
         <f>+SUM(O3:O6)</f>
-        <v>14.870000000000001</v>
+        <v>15.08</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
@@ -1228,14 +1228,14 @@
       </c>
       <c r="F10" s="22">
         <f>+M7</f>
-        <v>14.870000000000001</v>
+        <v>15.08</v>
       </c>
       <c r="G10" s="13">
         <v>50.4</v>
       </c>
       <c r="H10" s="21">
         <f>+F10*G10</f>
-        <v>749.44799999999998</v>
+        <v>760.03199999999993</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1252,11 +1252,11 @@
       </c>
       <c r="H11" s="21">
         <f>+H10</f>
-        <v>749.44799999999998</v>
+        <v>760.03199999999993</v>
       </c>
       <c r="K11" s="21">
         <f>+H11*D11</f>
-        <v>50.962464000000004</v>
+        <v>51.682175999999998</v>
       </c>
       <c r="L11" s="19">
         <f>+K11/F10</f>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F13" s="19">
         <f>+F10*D13</f>
-        <v>-0.43123000000000006</v>
+        <v>-0.43732000000000004</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="13">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K13" s="21">
         <f>+F13*I13</f>
-        <v>-12.074440000000001</v>
+        <v>-12.244960000000001</v>
       </c>
       <c r="L13" s="18"/>
       <c r="N13" t="s">
@@ -1389,11 +1389,11 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21">
         <f>+SUM(K11:K16)</f>
-        <v>34.518273999999998</v>
+        <v>35.067465999999996</v>
       </c>
       <c r="L18" s="19">
         <f>+K18/F10</f>
-        <v>2.3213365164761259</v>
+        <v>2.3254287798408484</v>
       </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>

--- a/model/Biogas_KVIK24.xlsx
+++ b/model/Biogas_KVIK24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au3642_uni_au_dk/Documents/Models and tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26476744-6EB1-469F-9D7C-FC19E6DE0858}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{0B0D16DA-F987-4172-834A-E5A42E502C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9BEE916-F3BE-477D-BCEC-CA4E1F4DD3EC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{86A3C7CE-5D82-4A55-8627-6C61FEAEB006}"/>
   </bookViews>
@@ -39,6 +39,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={AC5D6033-2565-4AFC-A4D9-A2E126C72A02}</author>
+    <author>tc={D08234B6-6B92-424B-BE26-11DAC6678AE3}</author>
     <author>tc={90D00BE9-6C5B-49F8-9AE6-1E9573B2DD4F}</author>
   </authors>
   <commentList>
@@ -50,7 +51,15 @@
     afhænger af biomasse</t>
       </text>
     </comment>
-    <comment ref="U2" authorId="1" shapeId="0" xr:uid="{90D00BE9-6C5B-49F8-9AE6-1E9573B2DD4F}">
+    <comment ref="J2" authorId="1" shapeId="0" xr:uid="{D08234B6-6B92-424B-BE26-11DAC6678AE3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fra regneark til Bæredygtig biogas. Opr. brugt konstanter fra Møller et al. (2022) SI men disse er for høje.</t>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="2" shapeId="0" xr:uid="{90D00BE9-6C5B-49F8-9AE6-1E9573B2DD4F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Manure type</t>
   </si>
@@ -93,6 +102,9 @@
   </si>
   <si>
     <t>Yield of B_0</t>
+  </si>
+  <si>
+    <t>CH4 prod.  app. hydrolysis const (L CH4/kg VS)</t>
   </si>
   <si>
     <t>CH4 prod. (L CH4/kg VS)</t>
@@ -415,6 +427,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Anders Peter S. Adamsen" id="{F6DDB605-D66B-4F15-9946-AC20B4EA4D52}" userId="S::au3642@uni.au.dk::bd199460-865e-4e4a-8c25-d6354259166a" providerId="AD"/>
   <person displayName="Henrik Bjarne Møller" id="{3EECA6B0-8583-4E9E-916C-C515814CB917}" userId="S::au224339@uni.au.dk::f2f4527d-af01-4963-b0eb-7a616c6c1851" providerId="AD"/>
 </personList>
 </file>
@@ -719,7 +732,10 @@
   <threadedComment ref="U1" dT="2024-02-14T10:31:56.28" personId="{3EECA6B0-8583-4E9E-916C-C515814CB917}" id="{AC5D6033-2565-4AFC-A4D9-A2E126C72A02}">
     <text>afhænger af biomasse</text>
   </threadedComment>
-  <threadedComment ref="U2" dT="2024-02-14T10:32:26.87" personId="{3EECA6B0-8583-4E9E-916C-C515814CB917}" id="{90D00BE9-6C5B-49F8-9AE6-1E9573B2DD4F}">
+  <threadedComment ref="J2" dT="2024-03-13T07:58:30.76" personId="{F6DDB605-D66B-4F15-9946-AC20B4EA4D52}" id="{D08234B6-6B92-424B-BE26-11DAC6678AE3}">
+    <text>Fra regneark til Bæredygtig biogas. Opr. brugt konstanter fra Møller et al. (2022) SI men disse er for høje.</text>
+  </threadedComment>
+  <threadedComment ref="V2" dT="2024-02-14T10:32:26.87" personId="{3EECA6B0-8583-4E9E-916C-C515814CB917}" id="{90D00BE9-6C5B-49F8-9AE6-1E9573B2DD4F}">
     <text>Går ud fra der skal stå CO2 her</text>
   </threadedComment>
 </ThreadedComments>
@@ -727,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB087C6-B92F-45E9-88F4-3746D5E0631B}">
-  <dimension ref="B1:X18"/>
+  <dimension ref="B1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,7 +754,7 @@
     <col min="1" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24">
+    <row r="1" spans="2:25">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -755,7 +771,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="2:24" s="1" customFormat="1" ht="45.75">
+    <row r="2" spans="2:25" s="1" customFormat="1" ht="76.5">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -801,7 +817,7 @@
       <c r="P2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="8" t="s">
@@ -825,10 +841,13 @@
       <c r="X2" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="2:24">
+      <c r="Y2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13">
         <v>0.4</v>
@@ -854,64 +873,68 @@
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K3" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L3" s="13">
         <v>0.8</v>
       </c>
       <c r="M3" s="18">
+        <f>+ROUND(H3*(1-EXP(-J3*K3)), 0)</f>
+        <v>192</v>
+      </c>
+      <c r="N3" s="18">
         <f>+L3*H3</f>
         <v>220</v>
       </c>
-      <c r="N3" s="22">
-        <f>+M3*G3/1000</f>
+      <c r="O3" s="22">
+        <f>+N3*G3/1000</f>
         <v>5.4207999999999998</v>
       </c>
-      <c r="O3" s="18">
-        <f>+ROUND(N3/22.4*16, 2)</f>
+      <c r="P3" s="18">
+        <f>+ROUND(O3/22.4*16, 2)</f>
         <v>3.87</v>
       </c>
-      <c r="P3" s="20">
-        <f>+O3/G3</f>
+      <c r="Q3" s="20">
+        <f>+P3/G3</f>
         <v>0.15706168831168832</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="R3" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R3" s="18">
-        <f>1-Q3</f>
+      <c r="S3" s="18">
+        <f>1-R3</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="S3" s="18">
+      <c r="T3" s="18">
         <v>0.42</v>
       </c>
-      <c r="T3" s="19">
-        <f>+O3/16*12</f>
+      <c r="U3" s="19">
+        <f>+P3/16*12</f>
         <v>2.9024999999999999</v>
       </c>
-      <c r="U3" s="19">
-        <f>+T3/Q3*R3</f>
+      <c r="V3" s="19">
+        <f>+U3/R3*S3</f>
         <v>2.3747727272727266</v>
       </c>
-      <c r="V3" s="19">
-        <f>+SUM(T3:U3)/S3</f>
+      <c r="W3" s="19">
+        <f>+SUM(U3:V3)/T3</f>
         <v>12.564935064935064</v>
       </c>
-      <c r="W3" s="19">
-        <f>+V3/(G3)</f>
+      <c r="X3" s="19">
+        <f>+W3/(G3)</f>
         <v>0.50994054646652043</v>
       </c>
-      <c r="X3" s="19">
-        <f>+W3*E3</f>
+      <c r="Y3" s="19">
+        <f>+X3*E3</f>
         <v>0.40795243717321639</v>
       </c>
     </row>
-    <row r="4" spans="2:24">
+    <row r="4" spans="2:25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="13">
         <v>0.4</v>
@@ -937,64 +960,68 @@
         <v>0</v>
       </c>
       <c r="J4" s="15">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K4" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L4" s="13">
         <v>0.85</v>
       </c>
       <c r="M4" s="18">
-        <f t="shared" ref="M4:M6" si="2">+L4*H4</f>
+        <f t="shared" ref="M4:M6" si="2">+ROUND(H4*(1-EXP(-J4*K4)), 0)</f>
+        <v>307</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" ref="N4:N6" si="3">+L4*H4</f>
         <v>297.5</v>
       </c>
-      <c r="N4" s="22">
-        <f>+M4*G4/1000</f>
+      <c r="O4" s="22">
+        <f>+N4*G4/1000</f>
         <v>5.1408000000000005</v>
       </c>
-      <c r="O4" s="18">
-        <f t="shared" ref="O4:O6" si="3">+ROUND(N4/22.4*16, 2)</f>
+      <c r="P4" s="18">
+        <f t="shared" ref="P4:P6" si="4">+ROUND(O4/22.4*16, 2)</f>
         <v>3.67</v>
       </c>
-      <c r="P4" s="20">
-        <f>+O4/G4</f>
+      <c r="Q4" s="20">
+        <f>+P4/G4</f>
         <v>0.21238425925925924</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="13">
         <v>0.6</v>
       </c>
-      <c r="R4" s="18">
-        <f t="shared" ref="R4:R5" si="4">1-Q4</f>
+      <c r="S4" s="18">
+        <f t="shared" ref="S4:S5" si="5">1-R4</f>
         <v>0.4</v>
       </c>
-      <c r="S4" s="18">
+      <c r="T4" s="18">
         <v>0.42</v>
       </c>
-      <c r="T4" s="19">
-        <f>+O4/16*12</f>
+      <c r="U4" s="19">
+        <f>+P4/16*12</f>
         <v>2.7524999999999999</v>
       </c>
-      <c r="U4" s="19">
-        <f t="shared" ref="U4:U6" si="5">+T4/Q4*R4</f>
+      <c r="V4" s="19">
+        <f t="shared" ref="V4:V6" si="6">+U4/R4*S4</f>
         <v>1.8350000000000002</v>
       </c>
-      <c r="V4" s="19">
-        <f>+SUM(T4:U4)/S4</f>
+      <c r="W4" s="19">
+        <f>+SUM(U4:V4)/T4</f>
         <v>10.922619047619049</v>
       </c>
-      <c r="W4" s="19">
-        <f>+V4/(G4)</f>
+      <c r="X4" s="19">
+        <f>+W4/(G4)</f>
         <v>0.63209600970017643</v>
       </c>
-      <c r="X4" s="19">
-        <f>+W4*E4</f>
+      <c r="Y4" s="19">
+        <f>+X4*E4</f>
         <v>0.50567680776014112</v>
       </c>
     </row>
-    <row r="5" spans="2:24">
+    <row r="5" spans="2:25">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="13">
         <v>0.2</v>
@@ -1023,61 +1050,65 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K5" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L5" s="13">
         <v>0.8</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="N5" s="18">
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="N5" s="22">
-        <f>+M5*G5/1000</f>
+      <c r="O5" s="22">
+        <f>+N5*G5/1000</f>
         <v>10.56</v>
       </c>
-      <c r="O5" s="18">
-        <f t="shared" si="3"/>
+      <c r="P5" s="18">
+        <f t="shared" si="4"/>
         <v>7.54</v>
       </c>
-      <c r="P5" s="20">
-        <f>+O5/G5</f>
+      <c r="Q5" s="20">
+        <f>+P5/G5</f>
         <v>0.15708333333333332</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="R5" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R5" s="18">
-        <f t="shared" si="4"/>
+      <c r="S5" s="18">
+        <f t="shared" si="5"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="S5" s="18">
+      <c r="T5" s="18">
         <v>0.42</v>
       </c>
-      <c r="T5" s="19">
-        <f t="shared" ref="T4:T6" si="6">+O5/16*12</f>
+      <c r="U5" s="19">
+        <f t="shared" ref="U4:U6" si="7">+P5/16*12</f>
         <v>5.6550000000000002</v>
       </c>
-      <c r="U5" s="19">
-        <f t="shared" si="5"/>
+      <c r="V5" s="19">
+        <f t="shared" si="6"/>
         <v>4.6268181818181811</v>
       </c>
-      <c r="V5" s="19">
-        <f t="shared" ref="V4:V6" si="7">+SUM(T5:U5)/S5</f>
+      <c r="W5" s="19">
+        <f t="shared" ref="W4:W6" si="8">+SUM(U5:V5)/T5</f>
         <v>24.480519480519479</v>
       </c>
-      <c r="W5" s="19">
-        <f>+V5/(G5)</f>
+      <c r="X5" s="19">
+        <f>+W5/(G5)</f>
         <v>0.51001082251082253</v>
       </c>
-      <c r="X5" s="19">
-        <f>+W5*E5</f>
+      <c r="Y5" s="19">
+        <f>+X5*E5</f>
         <v>0.40800865800865804</v>
       </c>
     </row>
-    <row r="6" spans="2:24">
+    <row r="6" spans="2:25">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="13">
         <v>0</v>
@@ -1106,59 +1137,63 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K6" s="13">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L6" s="13">
         <v>0.8</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="N6" s="18">
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="N6" s="22">
-        <f>+M6*G6/1000</f>
+      <c r="O6" s="22">
+        <f>+N6*G6/1000</f>
         <v>0</v>
       </c>
-      <c r="O6" s="18">
-        <f t="shared" si="3"/>
+      <c r="P6" s="18">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P6" s="20" t="e">
-        <f>+O6/G6</f>
+      <c r="Q6" s="20" t="e">
+        <f>+P6/G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="R6" s="13">
         <v>0.5</v>
       </c>
-      <c r="R6" s="18">
-        <f>1-Q6</f>
+      <c r="S6" s="18">
+        <f>1-R6</f>
         <v>0.5</v>
       </c>
-      <c r="S6" s="18">
+      <c r="T6" s="18">
         <v>0.42</v>
       </c>
-      <c r="T6" s="19">
+      <c r="U6" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U6" s="19">
-        <f t="shared" si="5"/>
+      <c r="W6" s="19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="V6" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="19" t="e">
-        <f>+V6/(G6)</f>
+      <c r="X6" s="19" t="e">
+        <f>+W6/(G6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X6" s="19" t="e">
-        <f>+W6*E6</f>
+      <c r="Y6" s="19" t="e">
+        <f>+X6*E6</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:24">
+    <row r="7" spans="2:25">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <f>+SUM(C3:C6)</f>
@@ -1176,13 +1211,12 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="22">
-        <f>+SUM(O3:O6)</f>
+      <c r="M7" s="4"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="22">
+        <f>+SUM(P3:P6)</f>
         <v>15.08</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -1190,44 +1224,45 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-    </row>
-    <row r="9" spans="2:24" s="6" customFormat="1" ht="30">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="9" spans="2:25" s="6" customFormat="1" ht="30">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="22">
-        <f>+M7</f>
+        <f>+P7</f>
         <v>15.08</v>
       </c>
       <c r="G10" s="13">
@@ -1240,15 +1275,15 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:24">
+    <row r="11" spans="2:25">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="21">
         <f>+H10</f>
@@ -1263,21 +1298,21 @@
         <v>3.4272</v>
       </c>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:25">
       <c r="F12" s="2"/>
       <c r="H12" s="5"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:24">
+    <row r="13" spans="2:25">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="16">
         <v>-2.9000000000000001E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="19">
         <f>+F10*D13</f>
@@ -1293,18 +1328,18 @@
       </c>
       <c r="L13" s="18"/>
       <c r="N13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="17">
         <v>-15.4</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="21">
@@ -1321,18 +1356,18 @@
       </c>
       <c r="L14" s="18"/>
       <c r="N14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="17">
         <v>-6.5</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="21">
@@ -1348,18 +1383,18 @@
       </c>
       <c r="L15" s="18"/>
       <c r="N15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13">
         <v>-1.2</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2"/>
       <c r="K16" s="18">
@@ -1368,7 +1403,7 @@
       </c>
       <c r="L16" s="18"/>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:14">
@@ -1377,7 +1412,7 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
